--- a/template_pegase_v1/qrt_pcr.xlsx
+++ b/template_pegase_v1/qrt_pcr.xlsx
@@ -14,64 +14,64 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
-    <t>operator</t>
-  </si>
-  <si>
-    <t>sampleid</t>
-  </si>
-  <si>
-    <t>samplequantity</t>
-  </si>
-  <si>
-    <t>targetsequencename</t>
-  </si>
-  <si>
-    <t>technologytype</t>
-  </si>
-  <si>
-    <t>reverseprimersequence</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>dye</t>
-  </si>
-  <si>
-    <t>platenumber</t>
-  </si>
-  <si>
-    <t>resultct</t>
-  </si>
-  <si>
-    <t>forwardprimersequence</t>
-  </si>
-  <si>
-    <t>rawdatapathway</t>
-  </si>
-  <si>
-    <t>pcrprogram</t>
-  </si>
-  <si>
-    <t>reverseprimername</t>
-  </si>
-  <si>
-    <t>criticalapparatuscriticalsoftware</t>
-  </si>
-  <si>
-    <t>forwardprimername</t>
-  </si>
-  <si>
-    <t>ampliconsize</t>
-  </si>
-  <si>
-    <t>criticalproduct</t>
-  </si>
-  <si>
-    <t>positioninplate</t>
-  </si>
-  <si>
-    <t>laboratoryoperatingmode</t>
+    <t>Operator</t>
+  </si>
+  <si>
+    <t>SampleID</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>LaboratoryOperatingMode</t>
+  </si>
+  <si>
+    <t>CriticalApparatusCriticalSoftware</t>
+  </si>
+  <si>
+    <t>CriticalProduct</t>
+  </si>
+  <si>
+    <t>RawDataPathway</t>
+  </si>
+  <si>
+    <t>TargetSequenceName</t>
+  </si>
+  <si>
+    <t>ForwardPrimerName</t>
+  </si>
+  <si>
+    <t>ForwardPrimerSequence</t>
+  </si>
+  <si>
+    <t>ReversePrimerName</t>
+  </si>
+  <si>
+    <t>ReversePrimerSequence</t>
+  </si>
+  <si>
+    <t>PcrProgram</t>
+  </si>
+  <si>
+    <t>SampleQuantity</t>
+  </si>
+  <si>
+    <t>AmpliconSize</t>
+  </si>
+  <si>
+    <t>TechnologyType</t>
+  </si>
+  <si>
+    <t>ResultCt</t>
+  </si>
+  <si>
+    <t>Dye</t>
+  </si>
+  <si>
+    <t>PlateNumber</t>
+  </si>
+  <si>
+    <t>PositionInPlate</t>
   </si>
   <si>
     <t>#string</t>
@@ -201,7 +201,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -213,7 +213,7 @@
         <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
         <v>20</v>
@@ -237,13 +237,13 @@
         <v>20</v>
       </c>
       <c r="O2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P2" t="s">
         <v>20</v>
       </c>
       <c r="Q2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R2" t="s">
         <v>20</v>

--- a/template_pegase_v1/qrt_pcr.xlsx
+++ b/template_pegase_v1/qrt_pcr.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
   <si>
     <t>Operator</t>
   </si>
@@ -35,43 +35,61 @@
     <t>RawDataPathway</t>
   </si>
   <si>
+    <t>ForwardPrimerName</t>
+  </si>
+  <si>
+    <t>ForwardPrimerSequence</t>
+  </si>
+  <si>
+    <t>ForwardPrimerTm</t>
+  </si>
+  <si>
+    <t>ReversePrimerName</t>
+  </si>
+  <si>
+    <t>ReversePrimerSequence</t>
+  </si>
+  <si>
+    <t>ReversePrimerTm</t>
+  </si>
+  <si>
+    <t>ExpectedAmpliconSize</t>
+  </si>
+  <si>
+    <t>PcrProgram</t>
+  </si>
+  <si>
     <t>TargetSequenceName</t>
   </si>
   <si>
-    <t>ForwardPrimerName</t>
-  </si>
-  <si>
-    <t>ForwardPrimerSequence</t>
-  </si>
-  <si>
-    <t>ReversePrimerName</t>
-  </si>
-  <si>
-    <t>ReversePrimerSequence</t>
-  </si>
-  <si>
-    <t>PcrProgram</t>
-  </si>
-  <si>
-    <t>SampleQuantity</t>
-  </si>
-  <si>
-    <t>AmpliconSize</t>
+    <t>TemplateAmount</t>
+  </si>
+  <si>
+    <t>RtKitName</t>
   </si>
   <si>
     <t>TechnologyType</t>
   </si>
   <si>
+    <t>TaqManProbeSequence</t>
+  </si>
+  <si>
+    <t>Dye</t>
+  </si>
+  <si>
+    <t>PlateNumber</t>
+  </si>
+  <si>
+    <t>PositionInPlateOrRawNumber</t>
+  </si>
+  <si>
+    <t>ColumnNumber</t>
+  </si>
+  <si>
     <t>ResultCt</t>
   </si>
   <si>
-    <t>Dye</t>
-  </si>
-  <si>
-    <t>PlateNumber</t>
-  </si>
-  <si>
-    <t>PositionInPlate</t>
+    <t>ActualAmpliconTm</t>
   </si>
   <si>
     <t>#string</t>
@@ -80,7 +98,88 @@
     <t>#date</t>
   </si>
   <si>
+    <t>#float</t>
+  </si>
+  <si>
+    <t>#integer,  unit:bp</t>
+  </si>
+  <si>
     <t>#integer</t>
+  </si>
+  <si>
+    <t>#integer,  unit:c</t>
+  </si>
+  <si>
+    <t>#Manipulateur</t>
+  </si>
+  <si>
+    <t>#Desc:IdentifiantEchantillon</t>
+  </si>
+  <si>
+    <t>#Date</t>
+  </si>
+  <si>
+    <t>#ModeOderatoireLaboratoire</t>
+  </si>
+  <si>
+    <t>#AppareilLogicielCritique</t>
+  </si>
+  <si>
+    <t>#ProduitCritique</t>
+  </si>
+  <si>
+    <t>#LieuStockageDonneesBrutes</t>
+  </si>
+  <si>
+    <t>#NomAmorceSens</t>
+  </si>
+  <si>
+    <t>#SequenceAmorceSens</t>
+  </si>
+  <si>
+    <t>#TmArmorceSens</t>
+  </si>
+  <si>
+    <t>#NomAmorcesAntisens</t>
+  </si>
+  <si>
+    <t>#SequenceAmorcesAntisens</t>
+  </si>
+  <si>
+    <t>#TmAmorcesAntisens</t>
+  </si>
+  <si>
+    <t>#TailleTheoriqueAmplicon</t>
+  </si>
+  <si>
+    <t>#ProgrammePCR</t>
+  </si>
+  <si>
+    <t>#NomSequenceCible</t>
+  </si>
+  <si>
+    <t>#QuantiteMatrice</t>
+  </si>
+  <si>
+    <t>#NomKitRT</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>#SequenceSondeTaqMan</t>
+  </si>
+  <si>
+    <t>#NumeroPlaque</t>
+  </si>
+  <si>
+    <t>#PositionDansLaPlaqueOuNumeroLigne</t>
+  </si>
+  <si>
+    <t>#NumeroDeColonne</t>
+  </si>
+  <si>
+    <t>#TmReelAmplicon</t>
   </si>
 </sst>
 </file>
@@ -125,7 +224,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:AB3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -142,117 +241,242 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="P2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="Q2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="R2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="S2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="T2" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="U2" t="s">
+        <v>26</v>
+      </c>
+      <c r="V2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R3" t="s">
+        <v>48</v>
+      </c>
+      <c r="S3" t="s">
+        <v>49</v>
+      </c>
+      <c r="T3" t="s">
+        <v>50</v>
+      </c>
+      <c r="U3" t="s">
+        <v>51</v>
+      </c>
+      <c r="V3" t="s">
+        <v>50</v>
+      </c>
+      <c r="W3" t="s">
+        <v>52</v>
+      </c>
+      <c r="X3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/template_pegase_v1/qrt_pcr.xlsx
+++ b/template_pegase_v1/qrt_pcr.xlsx
@@ -12,29 +12,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
+  <si>
+    <t>Date</t>
+  </si>
   <si>
     <t>Operator</t>
   </si>
   <si>
+    <t>LaboratoryOperatingMode</t>
+  </si>
+  <si>
+    <t>CriticalApparatusCriticalSoftware</t>
+  </si>
+  <si>
+    <t>CriticalProduct</t>
+  </si>
+  <si>
+    <t>RawDataPathway</t>
+  </si>
+  <si>
     <t>SampleID</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>LaboratoryOperatingMode</t>
-  </si>
-  <si>
-    <t>CriticalApparatusCriticalSoftware</t>
-  </si>
-  <si>
-    <t>CriticalProduct</t>
-  </si>
-  <si>
-    <t>RawDataPathway</t>
-  </si>
-  <si>
     <t>ForwardPrimerName</t>
   </si>
   <si>
@@ -92,12 +92,12 @@
     <t>ActualAmpliconTm</t>
   </si>
   <si>
+    <t>#date</t>
+  </si>
+  <si>
     <t>#string</t>
   </si>
   <si>
-    <t>#date</t>
-  </si>
-  <si>
     <t>#float</t>
   </si>
   <si>
@@ -110,25 +110,25 @@
     <t>#integer,  unit:c</t>
   </si>
   <si>
+    <t>#Date</t>
+  </si>
+  <si>
     <t>#Manipulateur</t>
   </si>
   <si>
+    <t>#ModeOderatoireLaboratoire</t>
+  </si>
+  <si>
+    <t>#AppareilLogicielCritique</t>
+  </si>
+  <si>
+    <t>#ProduitCritique</t>
+  </si>
+  <si>
+    <t>#LieuStockageDonneesBrutes</t>
+  </si>
+  <si>
     <t>#Desc:IdentifiantEchantillon</t>
-  </si>
-  <si>
-    <t>#Date</t>
-  </si>
-  <si>
-    <t>#ModeOderatoireLaboratoire</t>
-  </si>
-  <si>
-    <t>#AppareilLogicielCritique</t>
-  </si>
-  <si>
-    <t>#ProduitCritique</t>
-  </si>
-  <si>
-    <t>#LieuStockageDonneesBrutes</t>
   </si>
   <si>
     <t>#NomAmorceSens</t>
@@ -224,7 +224,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AB3"/>
+  <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -241,75 +241,72 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -318,81 +315,78 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
         <v>28</v>
       </c>
-      <c r="L2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" t="s">
-        <v>26</v>
-      </c>
       <c r="N2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="R2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X2" t="s">
         <v>30</v>
       </c>
-      <c r="S2" t="s">
-        <v>26</v>
-      </c>
-      <c r="T2" t="s">
-        <v>26</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>26</v>
-      </c>
-      <c r="W2" t="s">
-        <v>26</v>
-      </c>
-      <c r="X2" t="s">
-        <v>26</v>
-      </c>
       <c r="Y2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Z2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -407,75 +401,72 @@
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U3" t="s">
         <v>50</v>
       </c>
-      <c r="U3" t="s">
-        <v>51</v>
-      </c>
       <c r="V3" t="s">
+        <v>52</v>
+      </c>
+      <c r="W3" t="s">
+        <v>53</v>
+      </c>
+      <c r="X3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y3" t="s">
         <v>50</v>
       </c>
-      <c r="W3" t="s">
-        <v>52</v>
-      </c>
-      <c r="X3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>54</v>
-      </c>
       <c r="Z3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA3" t="s">
         <v>55</v>
       </c>
     </row>

--- a/template_pegase_v1/qrt_pcr.xlsx
+++ b/template_pegase_v1/qrt_pcr.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -26,7 +26,10 @@
     <t>CriticalApparatusCriticalSoftware</t>
   </si>
   <si>
-    <t>CriticalProduct</t>
+    <t>CriticalProductReference</t>
+  </si>
+  <si>
+    <t>CriticalProductLot</t>
   </si>
   <si>
     <t>RawDataPathway</t>
@@ -92,6 +95,9 @@
     <t>ActualAmpliconTm</t>
   </si>
   <si>
+    <t>Comment</t>
+  </si>
+  <si>
     <t>#date</t>
   </si>
   <si>
@@ -110,25 +116,28 @@
     <t>#integer,  unit:c</t>
   </si>
   <si>
-    <t>#Date</t>
-  </si>
-  <si>
-    <t>#Manipulateur</t>
-  </si>
-  <si>
-    <t>#ModeOderatoireLaboratoire</t>
-  </si>
-  <si>
-    <t>#AppareilLogicielCritique</t>
-  </si>
-  <si>
-    <t>#ProduitCritique</t>
-  </si>
-  <si>
-    <t>#LieuStockageDonneesBrutes</t>
-  </si>
-  <si>
-    <t>#Desc:IdentifiantEchantillon</t>
+    <t>#Date format jj/mm/aaa</t>
+  </si>
+  <si>
+    <t>#Manipulateur (LDAP)</t>
+  </si>
+  <si>
+    <t>#Mode Operatoire de Laboratoire (MOL)</t>
+  </si>
+  <si>
+    <t>#Appareil ou logiciel critique (si plusieurs utiliser des ';')</t>
+  </si>
+  <si>
+    <t>#Fournisseur et ref. produits critiques (si plusieurs utiliser des ';')</t>
+  </si>
+  <si>
+    <t>#FNumero de lot produits critiques (si plusieurs utiliser des ';')</t>
+  </si>
+  <si>
+    <t># Lieu de stockage des donnees brutes</t>
+  </si>
+  <si>
+    <t>#Identifiant de l'echantillon</t>
   </si>
   <si>
     <t>#NomAmorceSens</t>
@@ -180,6 +189,9 @@
   </si>
   <si>
     <t>#TmReelAmplicon</t>
+  </si>
+  <si>
+    <t>#Commentaire</t>
   </si>
 </sst>
 </file>
@@ -224,7 +236,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -309,165 +321,183 @@
       <c r="Z1" t="s">
         <v>25</v>
       </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="S2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="T2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="U2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="V2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="W2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="X2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="Z2" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="S3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="V3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="W3" t="s">
+        <v>55</v>
+      </c>
+      <c r="X3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z3" t="s">
         <v>53</v>
       </c>
-      <c r="X3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>55</v>
+      <c r="AA3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/template_pegase_v1/qrt_pcr.xlsx
+++ b/template_pegase_v1/qrt_pcr.xlsx
@@ -12,15 +12,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
-  <si>
-    <t>Date</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="101">
+  <si>
+    <t>AnalysisDate</t>
   </si>
   <si>
     <t>Operator</t>
   </si>
   <si>
-    <t>LaboratoryOperatingMode</t>
+    <t>LaboratoryOperatingModeCode</t>
+  </si>
+  <si>
+    <t>LaboratoryOperatingModeName</t>
   </si>
   <si>
     <t>CriticalApparatusCriticalSoftware</t>
@@ -38,49 +41,40 @@
     <t>SampleID</t>
   </si>
   <si>
+    <t>Comment</t>
+  </si>
+  <si>
     <t>ForwardPrimerName</t>
   </si>
   <si>
     <t>ForwardPrimerSequence</t>
   </si>
   <si>
-    <t>ForwardPrimerTm</t>
-  </si>
-  <si>
     <t>ReversePrimerName</t>
   </si>
   <si>
     <t>ReversePrimerSequence</t>
   </si>
   <si>
-    <t>ReversePrimerTm</t>
-  </si>
-  <si>
     <t>ExpectedAmpliconSize</t>
   </si>
   <si>
     <t>PcrProgram</t>
   </si>
   <si>
-    <t>TargetSequenceName</t>
+    <t>TargetGeneName</t>
   </si>
   <si>
     <t>TemplateAmount</t>
   </si>
   <si>
-    <t>RtKitName</t>
-  </si>
-  <si>
     <t>TechnologyType</t>
   </si>
   <si>
     <t>TaqManProbeSequence</t>
   </si>
   <si>
-    <t>Dye</t>
-  </si>
-  <si>
-    <t>PlateNumber</t>
+    <t>PlateName</t>
   </si>
   <si>
     <t>PositionInPlateOrRawNumber</t>
@@ -95,7 +89,85 @@
     <t>ActualAmpliconTm</t>
   </si>
   <si>
-    <t>Comment</t>
+    <t>MolarExtinctionCoefficientUnit</t>
+  </si>
+  <si>
+    <t># Date de l'analyse</t>
+  </si>
+  <si>
+    <t># Manipulateur</t>
+  </si>
+  <si>
+    <t># Code Mode Operatoire de Laboratoire</t>
+  </si>
+  <si>
+    <t># Nom Mode Operatoire de Laboratoire</t>
+  </si>
+  <si>
+    <t># Appareil ou logiciel critique</t>
+  </si>
+  <si>
+    <t># Fournisseur et ref.  produits critiques</t>
+  </si>
+  <si>
+    <t># Numéro de lot produits critiques</t>
+  </si>
+  <si>
+    <t># Lieu de stockage des donnees brutes.</t>
+  </si>
+  <si>
+    <t># Identifiant de l'echantillon</t>
+  </si>
+  <si>
+    <t># Commentaire</t>
+  </si>
+  <si>
+    <t># Nom de l'amorce sens</t>
+  </si>
+  <si>
+    <t># Sequence de l'amorce sens</t>
+  </si>
+  <si>
+    <t># Nom de l'amorce antisens</t>
+  </si>
+  <si>
+    <t># Sequence de l'amorce antisens</t>
+  </si>
+  <si>
+    <t># Taille théorique de l'amplicon</t>
+  </si>
+  <si>
+    <t># Programme PCR</t>
+  </si>
+  <si>
+    <t># Nom du gène cible</t>
+  </si>
+  <si>
+    <t># Quantité de matrice</t>
+  </si>
+  <si>
+    <t># Type de technologie utilisée (Sybr, Taqman)</t>
+  </si>
+  <si>
+    <t># Sequence de la sonde TaqMan</t>
+  </si>
+  <si>
+    <t># Nom de la plaque</t>
+  </si>
+  <si>
+    <t># Position dans la plaque ou numéro de ligne</t>
+  </si>
+  <si>
+    <t># Numéro de la colonne</t>
+  </si>
+  <si>
+    <t># Résultat Ct</t>
+  </si>
+  <si>
+    <t># Tm réel de l'amplicon</t>
+  </si>
+  <si>
+    <t># Unité du coefficient d'extinction molaire</t>
   </si>
   <si>
     <t>#date</t>
@@ -104,94 +176,147 @@
     <t>#string</t>
   </si>
   <si>
+    <t>#integer,
+  unit:bp</t>
+  </si>
+  <si>
+    <t>#integer</t>
+  </si>
+  <si>
     <t>#float</t>
   </si>
   <si>
-    <t>#integer,  unit:bp</t>
-  </si>
-  <si>
-    <t>#integer</t>
-  </si>
-  <si>
-    <t>#integer,  unit:c</t>
-  </si>
-  <si>
-    <t>#Date format jj/mm/aaa</t>
-  </si>
-  <si>
-    <t>#Manipulateur (LDAP)</t>
-  </si>
-  <si>
-    <t>#Mode Operatoire de Laboratoire (MOL)</t>
-  </si>
-  <si>
-    <t>#Appareil ou logiciel critique (si plusieurs utiliser des ';')</t>
-  </si>
-  <si>
-    <t>#Fournisseur et ref. produits critiques (si plusieurs utiliser des ';')</t>
-  </si>
-  <si>
-    <t>#FNumero de lot produits critiques (si plusieurs utiliser des ';')</t>
-  </si>
-  <si>
-    <t># Lieu de stockage des donnees brutes</t>
-  </si>
-  <si>
-    <t>#Identifiant de l'echantillon</t>
-  </si>
-  <si>
-    <t>#NomAmorceSens</t>
-  </si>
-  <si>
-    <t>#SequenceAmorceSens</t>
-  </si>
-  <si>
-    <t>#TmArmorceSens</t>
-  </si>
-  <si>
-    <t>#NomAmorcesAntisens</t>
-  </si>
-  <si>
-    <t>#SequenceAmorcesAntisens</t>
-  </si>
-  <si>
-    <t>#TmAmorcesAntisens</t>
-  </si>
-  <si>
-    <t>#TailleTheoriqueAmplicon</t>
-  </si>
-  <si>
-    <t>#ProgrammePCR</t>
-  </si>
-  <si>
-    <t>#NomSequenceCible</t>
-  </si>
-  <si>
-    <t>#QuantiteMatrice</t>
-  </si>
-  <si>
-    <t>#NomKitRT</t>
+    <t>#integer,
+  unit:celsisus</t>
+  </si>
+  <si>
+    <t># format:  jj/mm/aaa</t>
+  </si>
+  <si>
+    <t># format: texte, identifiant LDAP</t>
+  </si>
+  <si>
+    <t># format: texte, MO-LAB-XXX, si plusieurs MO-LAB utiliser des ';' pour les séparer</t>
+  </si>
+  <si>
+    <t># format: texte, si plusieurs MO-LAB utiliser des ';' pour les séparer</t>
+  </si>
+  <si>
+    <t># format: texte, si plusieurs appareils/logiciels utiliser des ';' pour les séparer</t>
+  </si>
+  <si>
+    <t># format: texte, si plusieurs produits utiliser des ';' pour les séparer</t>
+  </si>
+  <si>
+    <t># format: texte, si plusieurs produits utiliser des ';' pour les séparer. Conserver le même ordre que dans la colonne Référence des produits.</t>
+  </si>
+  <si>
+    <t># format: texte</t>
+  </si>
+  <si>
+    <t># format: texte, à définir....</t>
+  </si>
+  <si>
+    <t># format: texte libre</t>
+  </si>
+  <si>
+    <t># format: texte, 5'-3'</t>
+  </si>
+  <si>
+    <t># format: nombre entier, ne pas spécifier d'unité</t>
+  </si>
+  <si>
+    <t># format: texte, symbole officiel du gène (HGNC)</t>
+  </si>
+  <si>
+    <t># format: nombre décimal, ne pas spécifier d'unité</t>
+  </si>
+  <si>
+    <t># format: texte, si taqman préciser le fluorophore.</t>
+  </si>
+  <si>
+    <t># format: nombre entier</t>
+  </si>
+  <si>
+    <t># format: nombre décimal</t>
+  </si>
+  <si>
+    <t># ex: 12/06/2019</t>
+  </si>
+  <si>
+    <t># ex: fherault</t>
+  </si>
+  <si>
+    <t># ex:  MO-LAB-029 ou MO-LAB-NA si pas de code</t>
+  </si>
+  <si>
+    <t># ex: Dosage du Glutathion dans les tissus</t>
+  </si>
+  <si>
+    <t># ex: Konélab20; appareil2; appareil3</t>
+  </si>
+  <si>
+    <t># ex: THERMO 981304;sCal 981831;Nortrol 981043;Abtrol 981044</t>
+  </si>
+  <si>
+    <t># ex : S415;G716;H342;H654</t>
+  </si>
+  <si>
+    <t># ex: //Konelab37/results/</t>
+  </si>
+  <si>
+    <t># ex: ....</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>#SequenceSondeTaqMan</t>
-  </si>
-  <si>
-    <t>#NumeroPlaque</t>
-  </si>
-  <si>
-    <t>#PositionDansLaPlaqueOuNumeroLigne</t>
-  </si>
-  <si>
-    <t>#NumeroDeColonne</t>
-  </si>
-  <si>
-    <t>#TmReelAmplicon</t>
-  </si>
-  <si>
-    <t>#Commentaire</t>
+    <t># ex: ME1-F</t>
+  </si>
+  <si>
+    <t># ex: TGGTGACTGATGGAGAACGTATTC</t>
+  </si>
+  <si>
+    <t># ex: ME1_R</t>
+  </si>
+  <si>
+    <t># ex: CAGGATGACAGGCAGACATTCTT</t>
+  </si>
+  <si>
+    <t># ex: 85</t>
+  </si>
+  <si>
+    <t># ex: 2min50;20sec95;(3sec95+30sec60)x40;fusioncurve</t>
+  </si>
+  <si>
+    <t># ex: ME1</t>
+  </si>
+  <si>
+    <t># ex: 2.5</t>
+  </si>
+  <si>
+    <t># ex: SYBRGreen ou Taqman FAM</t>
+  </si>
+  <si>
+    <t># ex: AACGTATTC ou NA</t>
+  </si>
+  <si>
+    <t># ex: MEI-P1</t>
+  </si>
+  <si>
+    <t># ex: F8 ou 6</t>
+  </si>
+  <si>
+    <t># ex: 8 ou NA</t>
+  </si>
+  <si>
+    <t># ex: 24.16 ou NA</t>
+  </si>
+  <si>
+    <t># ex: 78.28 ou NA</t>
+  </si>
+  <si>
+    <t># ex: L/mol/cm</t>
   </si>
 </sst>
 </file>
@@ -236,7 +361,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AC3"/>
+  <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -321,162 +446,150 @@
       <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="X2" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="Y2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="Z2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="I3" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="J3" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="L3" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="M3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="N3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="R3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="S3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T3" t="s">
         <v>53</v>
       </c>
       <c r="U3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V3" t="s">
         <v>53</v>
@@ -493,11 +606,165 @@
       <c r="Z3" t="s">
         <v>53</v>
       </c>
-      <c r="AA3" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
         <v>58</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="B4" t="s">
         <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>70</v>
+      </c>
+      <c r="R4" t="s">
+        <v>71</v>
+      </c>
+      <c r="S4" t="s">
+        <v>72</v>
+      </c>
+      <c r="T4" t="s">
+        <v>68</v>
+      </c>
+      <c r="U4" t="s">
+        <v>65</v>
+      </c>
+      <c r="V4" t="s">
+        <v>65</v>
+      </c>
+      <c r="W4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J5" t="s">
+        <v>84</v>
+      </c>
+      <c r="K5" t="s">
+        <v>85</v>
+      </c>
+      <c r="L5" t="s">
+        <v>86</v>
+      </c>
+      <c r="M5" t="s">
+        <v>87</v>
+      </c>
+      <c r="N5" t="s">
+        <v>88</v>
+      </c>
+      <c r="O5" t="s">
+        <v>89</v>
+      </c>
+      <c r="P5" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>91</v>
+      </c>
+      <c r="R5" t="s">
+        <v>92</v>
+      </c>
+      <c r="S5" t="s">
+        <v>93</v>
+      </c>
+      <c r="T5" t="s">
+        <v>94</v>
+      </c>
+      <c r="U5" t="s">
+        <v>95</v>
+      </c>
+      <c r="V5" t="s">
+        <v>96</v>
+      </c>
+      <c r="W5" t="s">
+        <v>97</v>
+      </c>
+      <c r="X5" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/template_pegase_v1/qrt_pcr.xlsx
+++ b/template_pegase_v1/qrt_pcr.xlsx
@@ -41,57 +41,57 @@
     <t>SampleID</t>
   </si>
   <si>
+    <t>ForwardPrimerName</t>
+  </si>
+  <si>
+    <t>ForwardPrimerSequence</t>
+  </si>
+  <si>
+    <t>ReversePrimerName</t>
+  </si>
+  <si>
+    <t>ReversePrimerSequence</t>
+  </si>
+  <si>
+    <t>ExpectedAmpliconSize</t>
+  </si>
+  <si>
+    <t>PcrProgram</t>
+  </si>
+  <si>
+    <t>TargetGeneName</t>
+  </si>
+  <si>
+    <t>TemplateAmount</t>
+  </si>
+  <si>
+    <t>TechnologyType</t>
+  </si>
+  <si>
+    <t>TaqManProbeSequence</t>
+  </si>
+  <si>
+    <t>PlateName</t>
+  </si>
+  <si>
+    <t>PositionInPlateOrRawNumber</t>
+  </si>
+  <si>
+    <t>ColumnNumber</t>
+  </si>
+  <si>
+    <t>ResultCt</t>
+  </si>
+  <si>
+    <t>ActualAmpliconTm</t>
+  </si>
+  <si>
+    <t>MolarExtinctionCoefficientUnit</t>
+  </si>
+  <si>
     <t>Comment</t>
   </si>
   <si>
-    <t>ForwardPrimerName</t>
-  </si>
-  <si>
-    <t>ForwardPrimerSequence</t>
-  </si>
-  <si>
-    <t>ReversePrimerName</t>
-  </si>
-  <si>
-    <t>ReversePrimerSequence</t>
-  </si>
-  <si>
-    <t>ExpectedAmpliconSize</t>
-  </si>
-  <si>
-    <t>PcrProgram</t>
-  </si>
-  <si>
-    <t>TargetGeneName</t>
-  </si>
-  <si>
-    <t>TemplateAmount</t>
-  </si>
-  <si>
-    <t>TechnologyType</t>
-  </si>
-  <si>
-    <t>TaqManProbeSequence</t>
-  </si>
-  <si>
-    <t>PlateName</t>
-  </si>
-  <si>
-    <t>PositionInPlateOrRawNumber</t>
-  </si>
-  <si>
-    <t>ColumnNumber</t>
-  </si>
-  <si>
-    <t>ResultCt</t>
-  </si>
-  <si>
-    <t>ActualAmpliconTm</t>
-  </si>
-  <si>
-    <t>MolarExtinctionCoefficientUnit</t>
-  </si>
-  <si>
     <t># Date de l'analyse</t>
   </si>
   <si>
@@ -119,55 +119,55 @@
     <t># Identifiant de l'echantillon</t>
   </si>
   <si>
+    <t># Nom de l'amorce sens</t>
+  </si>
+  <si>
+    <t># Sequence de l'amorce sens</t>
+  </si>
+  <si>
+    <t># Nom de l'amorce antisens</t>
+  </si>
+  <si>
+    <t># Sequence de l'amorce antisens</t>
+  </si>
+  <si>
+    <t># Taille théorique de l'amplicon</t>
+  </si>
+  <si>
+    <t># Programme PCR</t>
+  </si>
+  <si>
+    <t># Nom du gène cible</t>
+  </si>
+  <si>
+    <t># Quantité de matrice</t>
+  </si>
+  <si>
+    <t># Type de technologie utilisée (Sybr, Taqman)</t>
+  </si>
+  <si>
+    <t># Sequence de la sonde TaqMan</t>
+  </si>
+  <si>
+    <t># Nom de la plaque</t>
+  </si>
+  <si>
+    <t># Position dans la plaque ou numéro de ligne</t>
+  </si>
+  <si>
+    <t># Numéro de la colonne</t>
+  </si>
+  <si>
+    <t># Résultat Ct</t>
+  </si>
+  <si>
+    <t># Tm réel de l'amplicon</t>
+  </si>
+  <si>
+    <t># Unité du coefficient d'extinction molaire</t>
+  </si>
+  <si>
     <t># Commentaire</t>
-  </si>
-  <si>
-    <t># Nom de l'amorce sens</t>
-  </si>
-  <si>
-    <t># Sequence de l'amorce sens</t>
-  </si>
-  <si>
-    <t># Nom de l'amorce antisens</t>
-  </si>
-  <si>
-    <t># Sequence de l'amorce antisens</t>
-  </si>
-  <si>
-    <t># Taille théorique de l'amplicon</t>
-  </si>
-  <si>
-    <t># Programme PCR</t>
-  </si>
-  <si>
-    <t># Nom du gène cible</t>
-  </si>
-  <si>
-    <t># Quantité de matrice</t>
-  </si>
-  <si>
-    <t># Type de technologie utilisée (Sybr, Taqman)</t>
-  </si>
-  <si>
-    <t># Sequence de la sonde TaqMan</t>
-  </si>
-  <si>
-    <t># Nom de la plaque</t>
-  </si>
-  <si>
-    <t># Position dans la plaque ou numéro de ligne</t>
-  </si>
-  <si>
-    <t># Numéro de la colonne</t>
-  </si>
-  <si>
-    <t># Résultat Ct</t>
-  </si>
-  <si>
-    <t># Tm réel de l'amplicon</t>
-  </si>
-  <si>
-    <t># Unité du coefficient d'extinction molaire</t>
   </si>
   <si>
     <t>#date</t>
@@ -217,30 +217,30 @@
     <t># format: texte, à définir....</t>
   </si>
   <si>
+    <t># format: texte, 5'-3'</t>
+  </si>
+  <si>
+    <t># format: nombre entier, ne pas spécifier d'unité</t>
+  </si>
+  <si>
+    <t># format: texte, symbole officiel du gène (HGNC)</t>
+  </si>
+  <si>
+    <t># format: nombre décimal, ne pas spécifier d'unité</t>
+  </si>
+  <si>
+    <t># format: texte, si taqman préciser le fluorophore.</t>
+  </si>
+  <si>
+    <t># format: nombre entier</t>
+  </si>
+  <si>
+    <t># format: nombre décimal</t>
+  </si>
+  <si>
     <t># format: texte libre</t>
   </si>
   <si>
-    <t># format: texte, 5'-3'</t>
-  </si>
-  <si>
-    <t># format: nombre entier, ne pas spécifier d'unité</t>
-  </si>
-  <si>
-    <t># format: texte, symbole officiel du gène (HGNC)</t>
-  </si>
-  <si>
-    <t># format: nombre décimal, ne pas spécifier d'unité</t>
-  </si>
-  <si>
-    <t># format: texte, si taqman préciser le fluorophore.</t>
-  </si>
-  <si>
-    <t># format: nombre entier</t>
-  </si>
-  <si>
-    <t># format: nombre décimal</t>
-  </si>
-  <si>
     <t># ex: 12/06/2019</t>
   </si>
   <si>
@@ -268,55 +268,55 @@
     <t># ex: ....</t>
   </si>
   <si>
+    <t># ex: ME1-F</t>
+  </si>
+  <si>
+    <t># ex: TGGTGACTGATGGAGAACGTATTC</t>
+  </si>
+  <si>
+    <t># ex: ME1_R</t>
+  </si>
+  <si>
+    <t># ex: CAGGATGACAGGCAGACATTCTT</t>
+  </si>
+  <si>
+    <t># ex: 85</t>
+  </si>
+  <si>
+    <t># ex: 2min50;20sec95;(3sec95+30sec60)x40;fusioncurve</t>
+  </si>
+  <si>
+    <t># ex: ME1</t>
+  </si>
+  <si>
+    <t># ex: 2.5</t>
+  </si>
+  <si>
+    <t># ex: SYBRGreen ou Taqman FAM</t>
+  </si>
+  <si>
+    <t># ex: AACGTATTC ou NA</t>
+  </si>
+  <si>
+    <t># ex: MEI-P1</t>
+  </si>
+  <si>
+    <t># ex: F8 ou 6</t>
+  </si>
+  <si>
+    <t># ex: 8 ou NA</t>
+  </si>
+  <si>
+    <t># ex: 24.16 ou NA</t>
+  </si>
+  <si>
+    <t># ex: 78.28 ou NA</t>
+  </si>
+  <si>
+    <t># ex: L/mol/cm</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t># ex: ME1-F</t>
-  </si>
-  <si>
-    <t># ex: TGGTGACTGATGGAGAACGTATTC</t>
-  </si>
-  <si>
-    <t># ex: ME1_R</t>
-  </si>
-  <si>
-    <t># ex: CAGGATGACAGGCAGACATTCTT</t>
-  </si>
-  <si>
-    <t># ex: 85</t>
-  </si>
-  <si>
-    <t># ex: 2min50;20sec95;(3sec95+30sec60)x40;fusioncurve</t>
-  </si>
-  <si>
-    <t># ex: ME1</t>
-  </si>
-  <si>
-    <t># ex: 2.5</t>
-  </si>
-  <si>
-    <t># ex: SYBRGreen ou Taqman FAM</t>
-  </si>
-  <si>
-    <t># ex: AACGTATTC ou NA</t>
-  </si>
-  <si>
-    <t># ex: MEI-P1</t>
-  </si>
-  <si>
-    <t># ex: F8 ou 6</t>
-  </si>
-  <si>
-    <t># ex: 8 ou NA</t>
-  </si>
-  <si>
-    <t># ex: 24.16 ou NA</t>
-  </si>
-  <si>
-    <t># ex: 78.28 ou NA</t>
-  </si>
-  <si>
-    <t># ex: L/mol/cm</t>
   </si>
 </sst>
 </file>
@@ -568,40 +568,40 @@
         <v>53</v>
       </c>
       <c r="N3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s">
         <v>53</v>
       </c>
       <c r="Q3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="R3" t="s">
+        <v>53</v>
+      </c>
+      <c r="S3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T3" t="s">
+        <v>53</v>
+      </c>
+      <c r="U3" t="s">
+        <v>53</v>
+      </c>
+      <c r="V3" t="s">
         <v>55</v>
       </c>
-      <c r="S3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V3" t="s">
-        <v>53</v>
-      </c>
       <c r="W3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="Z3" t="s">
         <v>53</v>
@@ -636,25 +636,25 @@
         <v>66</v>
       </c>
       <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
         <v>67</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>65</v>
       </c>
-      <c r="L4" t="s">
-        <v>68</v>
-      </c>
       <c r="M4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N4" t="s">
         <v>68</v>
       </c>
       <c r="O4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" t="s">
         <v>69</v>
-      </c>
-      <c r="P4" t="s">
-        <v>65</v>
       </c>
       <c r="Q4" t="s">
         <v>70</v>
@@ -663,28 +663,28 @@
         <v>71</v>
       </c>
       <c r="S4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="T4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="U4" t="s">
         <v>65</v>
       </c>
       <c r="V4" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="W4" t="s">
         <v>73</v>
       </c>
       <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z4" t="s">
         <v>74</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="5">
